--- a/mfa/S_cerevisiae/run_files/Clim__D_0_28/scGEM_Clim__D_0_28_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Clim__D_0_28/scGEM_Clim__D_0_28_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430033 ala__L_c + 0.169900 arg__L_c + 0.204233 asn__L_c + 0.204233 asp__L_c + 0.006162 cys__L_c + 0.340681 gln__L_c + 0.340681 glu__L_c + 0.391299 gly_c + 0.084950 his__L_c + 0.259252 ile__L_c + 0.352565 leu__L_c + 0.289183 lys__L_c + 0.050178 met__L_c + 0.165499 phe__L_c + 0.185746 pro__L_c + 0.234603 ser__L_c + 0.245167 thr__L_c + 0.028610 trp__L_c + 0.086271 tyr__L_c + 0.322635 val__L_c + 0.566791 mannan_c + 0.879537 13BDglucan_c + 0.231457 16BDglucan_c + 0.020794 chtn_c + 0.424038 glycogen_c + 0.021255 tre_c + 0.002407 ergstest_c + 0.009400 ergst_c + 0.002443 pail_c + 0.009117 pc_c + 0.002450 pe_c + 0.002104 ps_c + 0.002425 tag_c + 0.001360 ipcbiom_c + 0.000523 ffabiom_c + 0.060588 ctp_c + 0.062351 gtp_c + 0.081191 utp_c + 0.003202 datp_c + 0.002162 dctp_c + 0.002162 dgtp_c + 0.003202 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.639084 atp_c + 93.792975 h2o_c --&gt; 4.391879 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.669087 ppi_c</t>
+    <t xml:space="preserve">0.430033 ala__L_c + 0.169900 arg__L_c + 0.204233 asn__L_c + 0.204233 asp__L_c + 0.006162 cys__L_c + 0.340681 gln__L_c + 0.340681 glu__L_c + 0.391299 gly_c + 0.084950 his__L_c + 0.259252 ile__L_c + 0.352565 leu__L_c + 0.289183 lys__L_c + 0.050178 met__L_c + 0.165499 phe__L_c + 0.185746 pro__L_c + 0.234603 ser__L_c + 0.245167 thr__L_c + 0.028610 trp__L_c + 0.086271 tyr__L_c + 0.322635 val__L_c + 0.566791 mannan_c + 0.879537 13BDglucan_c + 0.231457 16BDglucan_c + 0.020794 chtn_c + 0.424038 glycogen_c + 0.021255 tre_c + 0.002407 ergstest_c + 0.009400 ergst_c + 0.002443 pail_c + 0.009117 pc_c + 0.002450 pe_c + 0.002104 ps_c + 0.002425 tag_c + 0.001360 ipcbiom_c + 0.000523 ffabiom_c + 0.060588 ctp_c + 0.062351 gtp_c + 0.081191 utp_c + 0.003202 datp_c + 0.002162 dctp_c + 0.002162 dgtp_c + 0.003202 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.917172 atp_c + 135.071063 h2o_c --&gt; 4.391879 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.669087 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14727,10 +14727,10 @@
   </sheetPr>
   <dimension ref="A1:N580"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A580" activeCellId="0" sqref="A580"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33773,7 +33773,7 @@
   </sheetPr>
   <dimension ref="A1:L485"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A485" activeCellId="0" sqref="A485"/>
